--- a/Fase 2/Evidencias Proyecto/Sprint 2/Burndown chart sprint 2.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 2/Burndown chart sprint 2.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>*Se debe actualizar TODOS los dias despues de la daily meeting</t>
+    <t>Cantidad de horas</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -37,7 +37,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -48,6 +48,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos narrow"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -89,11 +93,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -103,22 +110,18 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -126,7 +129,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -228,11 +231,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1879257435"/>
-        <c:axId val="1120857827"/>
+        <c:axId val="1020494808"/>
+        <c:axId val="522038318"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1879257435"/>
+        <c:axId val="1020494808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -284,10 +287,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120857827"/>
+        <c:crossAx val="522038318"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1120857827"/>
+        <c:axId val="522038318"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879257435"/>
+        <c:crossAx val="1020494808"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -620,148 +623,188 @@
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="D8" s="6">
-        <v>45563.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>34.0</v>
+      <c r="D8" s="7">
+        <v>45572.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>144.0</v>
       </c>
       <c r="F8" s="8">
-        <v>34.0</v>
+        <v>144.0</v>
       </c>
       <c r="G8" s="9">
         <f>E8/17</f>
-        <v>2</v>
+        <v>8.470588235</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="D9" s="6">
-        <v>45568.0</v>
+      <c r="D9" s="7">
+        <v>45573.0</v>
       </c>
       <c r="E9" s="10">
-        <v>30.0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>30.0</v>
+        <v>128.0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>128.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="D10" s="6">
-        <v>45572.0</v>
+      <c r="D10" s="7">
+        <v>45574.0</v>
       </c>
       <c r="E10" s="10">
-        <v>30.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>30.0</v>
+        <v>112.0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>112.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="D11" s="11">
+      <c r="D11" s="7">
+        <v>45575.0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>96.0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="D12" s="7">
+        <v>45576.0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>80.0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="D13" s="7">
+        <v>45579.0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>64.0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="D14" s="7">
+        <v>45580.0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="D15" s="7">
+        <v>45581.0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="D16" s="7">
+        <v>45582.0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>16.0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="D17" s="7">
         <v>45583.0</v>
       </c>
-      <c r="E11" s="10">
-        <v>30.0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="Q29" s="14"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
